--- a/data/metadata/Informe-03-030070-A-TC-TP.xlsx
+++ b/data/metadata/Informe-03-030070-A-TC-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
   <si>
     <t>nacionalidad-pais-nombre</t>
   </si>
@@ -61,22 +61,25 @@
     <t>sdmx-dimension:refPeriod</t>
   </si>
   <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
-    <t>iaest-dimension:residencia-ccaa-nombre</t>
+    <t>iaest-measure:residencia-comarca-nombre</t>
+  </si>
+  <si>
+    <t>iaest-measure:residencia-ccaa-nombre</t>
   </si>
   <si>
     <t>iaest-measure:extranjeros</t>
   </si>
   <si>
-    <t>iaest-dimension:sexo</t>
+    <t>iaest-measure:sexo</t>
+  </si>
+  <si>
+    <t>iaest-measure:residencia-provincia-nombre</t>
   </si>
   <si>
     <t>iaest-measure:extrenjeros</t>
   </si>
   <si>
-    <t>iaest-dimension:nacionalidad-area-nombre</t>
+    <t>iaest-measure:nacionalidad-area-nombre</t>
   </si>
   <si>
     <t>medida</t>
@@ -91,22 +94,7 @@
     <t>skos:Concept</t>
   </si>
   <si>
-    <t>URI-comarca</t>
-  </si>
-  <si>
-    <t>URI-Provincia</t>
-  </si>
-  <si>
     <t>mapping-ano.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-residencia-ccaa-nombre.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-sexo.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-nacionalidad-area-nombre.xlsx</t>
   </si>
 </sst>
 </file>
@@ -239,24 +227,24 @@
         <v>19</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>23</v>
@@ -274,7 +262,7 @@
         <v>14</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>23</v>
@@ -283,7 +271,7 @@
         <v>23</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>23</v>
@@ -291,16 +279,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>25</v>
@@ -315,16 +303,16 @@
         <v>14</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>25</v>
@@ -332,16 +320,7 @@
     </row>
     <row r="5">
       <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-03-030070-A-TC-TP.xlsx
+++ b/data/metadata/Informe-03-030070-A-TC-TP.xlsx
@@ -11,45 +11,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
-  <si>
-    <t>nacionalidad-pais-nombre</t>
-  </si>
-  <si>
-    <t>residencia-comarca-codigo</t>
-  </si>
-  <si>
-    <t>ano</t>
-  </si>
-  <si>
-    <t>residencia-comarca-nombre</t>
-  </si>
-  <si>
-    <t>residencia-ccaa-nombre</t>
-  </si>
-  <si>
-    <t>nacionalidad-area-codigo</t>
-  </si>
-  <si>
-    <t>residencia-provincia-codigo</t>
-  </si>
-  <si>
-    <t>nacionalidad-pais-codigo</t>
-  </si>
-  <si>
-    <t>extranjeros</t>
-  </si>
-  <si>
-    <t>sexo</t>
-  </si>
-  <si>
-    <t>residencia-provincia-nombre</t>
-  </si>
-  <si>
-    <t>extrenjeros</t>
-  </si>
-  <si>
-    <t>nacionalidad-area-nombre</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
+  <si>
+    <t>Nacionalidad país nombre</t>
+  </si>
+  <si>
+    <t>Residencia comarca código</t>
+  </si>
+  <si>
+    <t>Extrenjeros</t>
+  </si>
+  <si>
+    <t>Residencia CCAA nombre</t>
+  </si>
+  <si>
+    <t>Residencia provincia nombre</t>
+  </si>
+  <si>
+    <t>Nacionalidad país código</t>
+  </si>
+  <si>
+    <t>Extranjeros</t>
+  </si>
+  <si>
+    <t>Nacionalidad área nombre</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Residencia provincia código</t>
+  </si>
+  <si>
+    <t>Residencia comarca nombre</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Nacionalidad área código</t>
   </si>
   <si>
     <t>iaest-measure:nacionalidad-pais-nombre</t>
@@ -58,40 +58,43 @@
     <t>null</t>
   </si>
   <si>
+    <t>iaest-measure:extrenjeros</t>
+  </si>
+  <si>
+    <t>iaest-measure:residencia-ccaa-nombre</t>
+  </si>
+  <si>
+    <t>iaest-measure:residencia-provincia-nombre</t>
+  </si>
+  <si>
+    <t>iaest-measure:extranjeros</t>
+  </si>
+  <si>
+    <t>iaest-measure:nacionalidad-area-nombre</t>
+  </si>
+  <si>
+    <t>iaest-measure:sexo</t>
+  </si>
+  <si>
+    <t>iaest-measure:residencia-comarca-nombre</t>
+  </si>
+  <si>
     <t>sdmx-dimension:refPeriod</t>
   </si>
   <si>
-    <t>iaest-measure:residencia-comarca-nombre</t>
-  </si>
-  <si>
-    <t>iaest-measure:residencia-ccaa-nombre</t>
-  </si>
-  <si>
-    <t>iaest-measure:extranjeros</t>
-  </si>
-  <si>
-    <t>iaest-measure:sexo</t>
-  </si>
-  <si>
-    <t>iaest-measure:residencia-provincia-nombre</t>
-  </si>
-  <si>
-    <t>iaest-measure:extrenjeros</t>
-  </si>
-  <si>
-    <t>iaest-measure:nacionalidad-area-nombre</t>
-  </si>
-  <si>
     <t>medida</t>
   </si>
   <si>
     <t>dim</t>
   </si>
   <si>
+    <t>xsd:string</t>
+  </si>
+  <si>
     <t>xsd:int</t>
   </si>
   <si>
-    <t>skos:Concept</t>
+    <t>xsd:date</t>
   </si>
   <si>
     <t>mapping-ano.xlsx</t>
@@ -215,25 +218,25 @@
         <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -244,37 +247,37 @@
         <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="M3" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -297,30 +300,30 @@
         <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
-      <c r="C5" s="1" t="s">
-        <v>27</v>
+      <c r="L5" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-03-030070-A-TC-TP.xlsx
+++ b/data/metadata/Informe-03-030070-A-TC-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>Nacionalidad país nombre</t>
   </si>
@@ -19,6 +19,9 @@
     <t>Residencia comarca código</t>
   </si>
   <si>
+    <t>Extrenjeros</t>
+  </si>
+  <si>
     <t>Residencia CCAA nombre</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>residencia-comarca-codigo</t>
   </si>
   <si>
+    <t>extrenjeros</t>
+  </si>
+  <si>
     <t>residencia-ccaa-nombre</t>
   </si>
   <si>
@@ -91,6 +97,9 @@
     <t>null</t>
   </si>
   <si>
+    <t>iaest-measure:extrenjeros</t>
+  </si>
+  <si>
     <t>sdmx-dimension:refArea</t>
   </si>
   <si>
@@ -115,13 +124,13 @@
     <t>skos:Concept</t>
   </si>
   <si>
+    <t>xsd:int</t>
+  </si>
+  <si>
     <t>URI-Comunidad</t>
   </si>
   <si>
     <t>URI-Provincia</t>
-  </si>
-  <si>
-    <t>xsd:int</t>
   </si>
   <si>
     <t>URI-comarca</t>
@@ -160,17 +169,22 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -180,15 +194,12 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -231,168 +242,183 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
